--- a/database/merise/src/exercice2_publisher/doc/data_dictionary.xlsx
+++ b/database/merise/src/exercice2_publisher/doc/data_dictionary.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\abc_2105-perso\base_de_donnee\merise\exercice2_publisher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\abc_2105-perso\database\merise\src\exercice2_publisher\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BEA455-2A03-4D28-B06B-E374C752B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B0799-74C8-4A5A-BF43-FF756472116A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="publisher" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk79064839" localSheetId="0">Feuil1!$A$4</definedName>
-    <definedName name="_Hlk79064861" localSheetId="0">Feuil1!$A$5</definedName>
-    <definedName name="_Hlk79064967" localSheetId="0">Feuil1!$A$7</definedName>
-    <definedName name="_Hlk79064999" localSheetId="0">Feuil1!$A$8</definedName>
-    <definedName name="_Hlk79065062" localSheetId="0">Feuil1!$A$15</definedName>
+    <definedName name="_Hlk79064839" localSheetId="0">publisher!$A$4</definedName>
+    <definedName name="_Hlk79064861" localSheetId="0">publisher!$A$6</definedName>
+    <definedName name="_Hlk79064967" localSheetId="0">publisher!$A$8</definedName>
+    <definedName name="_Hlk79064999" localSheetId="0">publisher!$A$5</definedName>
+    <definedName name="_Hlk79065062" localSheetId="0">publisher!$A$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Mnémonique</t>
   </si>
@@ -79,15 +79,9 @@
     <t>Prix du livre.</t>
   </si>
   <si>
-    <t>book_edition_number</t>
-  </si>
-  <si>
     <t>Numéro d’édition.</t>
   </si>
   <si>
-    <t>book_edition_date</t>
-  </si>
-  <si>
     <t>Date de l’édition du livre.</t>
   </si>
   <si>
@@ -97,10 +91,52 @@
     <t>Obligatoire, YYYY-MM-DD</t>
   </si>
   <si>
-    <t>book_edition_copy_number</t>
-  </si>
-  <si>
     <t>Nombre d’exemplaires par éditions.</t>
+  </si>
+  <si>
+    <t>Livre primé.</t>
+  </si>
+  <si>
+    <t>Facultatif</t>
+  </si>
+  <si>
+    <t>author_id</t>
+  </si>
+  <si>
+    <t>Identifiant de l’auteur dans le système.</t>
+  </si>
+  <si>
+    <t>author_firstname</t>
+  </si>
+  <si>
+    <t>Prénom de l’auteur.</t>
+  </si>
+  <si>
+    <t>author_lastname</t>
+  </si>
+  <si>
+    <t>Nom de l’auteur.</t>
+  </si>
+  <si>
+    <t>author_nickname</t>
+  </si>
+  <si>
+    <t>Pseudonyme de l’auteur.</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>bookseller_id</t>
+  </si>
+  <si>
+    <t>Identifiant du libraire dans le système.</t>
+  </si>
+  <si>
+    <t>Nom du libraire.</t>
+  </si>
+  <si>
+    <t>Adresse du libraire.</t>
   </si>
   <si>
     <r>
@@ -109,7 +145,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -120,7 +155,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -129,62 +163,50 @@
     </r>
   </si>
   <si>
-    <t>Livre primé.</t>
-  </si>
-  <si>
-    <t>Facultatif</t>
-  </si>
-  <si>
-    <t>author_id</t>
-  </si>
-  <si>
-    <t>Identifiant de l’auteur dans le système.</t>
-  </si>
-  <si>
-    <t>author_firstname</t>
-  </si>
-  <si>
-    <t>Prénom de l’auteur.</t>
-  </si>
-  <si>
-    <t>author_lastname</t>
-  </si>
-  <si>
-    <t>Nom de l’auteur.</t>
-  </si>
-  <si>
-    <t>author_nickname</t>
-  </si>
-  <si>
-    <t>Pseudonyme de l’auteur.</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>bookseller_id</t>
-  </si>
-  <si>
-    <t>Identifiant du libraire dans le système.</t>
-  </si>
-  <si>
-    <t>bookseller_name</t>
-  </si>
-  <si>
-    <t>Nom du libraire.</t>
-  </si>
-  <si>
-    <t>bookseller_address</t>
-  </si>
-  <si>
-    <t>Adresse du libraire.</t>
+    <t>edition_number</t>
+  </si>
+  <si>
+    <t>edition_date</t>
+  </si>
+  <si>
+    <t>edition_copy_number</t>
+  </si>
+  <si>
+    <t>bookseller_firstname</t>
+  </si>
+  <si>
+    <t>Prénom du libraire.</t>
+  </si>
+  <si>
+    <t>bookseller_lastname</t>
+  </si>
+  <si>
+    <t>bookseller_street</t>
+  </si>
+  <si>
+    <t>bookseller_nb_street</t>
+  </si>
+  <si>
+    <t>Numéro de rue du libraire</t>
+  </si>
+  <si>
+    <t>bookseller_postal_code</t>
+  </si>
+  <si>
+    <t>Code postal du libraire</t>
+  </si>
+  <si>
+    <t>bookseller_city</t>
+  </si>
+  <si>
+    <t>Ville du libraire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +247,18 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,18 +273,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2D2D2"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8E8E8"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -317,11 +356,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -329,7 +396,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,7 +408,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,7 +420,61 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,16 +810,16 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -718,186 +842,254 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10">
+        <v>32</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16">
+        <v>11</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="16">
+        <v>48</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16">
+        <v>48</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16">
+        <v>48</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D13" s="21">
+        <v>11</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="21">
+        <v>48</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="21">
+        <v>48</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="D16" s="21">
+        <v>11</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="21">
+        <v>255</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="26">
+        <v>11</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5">
-        <v>48</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="9">
-        <v>48</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9">
-        <v>48</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="9">
-        <v>255</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="29">
+        <v>64</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>12</v>
       </c>
     </row>
